--- a/output/carin-rtpbc-Patient.xlsx
+++ b/output/carin-rtpbc-Patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="476">
   <si>
     <t>Path</t>
   </si>
@@ -691,6 +691,9 @@
     <t>Administrative gender</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
@@ -958,7 +961,10 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Two Letter USPS alphabetic codes</t>
+    <t>CARIN RTPBC Two Letter State and Province Codes</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin/ValueSet/carin-rtpbc-state-and-province-code</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1008,6 +1014,9 @@
   </si>
   <si>
     <t>ISO 3166 2-character country codes</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin/ValueSet/carin-rtpbc-country-code</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1670,7 +1679,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="78.75" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.5546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -4396,7 +4405,7 @@
         <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4429,16 +4438,16 @@
         <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4446,14 +4455,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>51</v>
@@ -4471,19 +4480,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4532,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4547,24 +4556,24 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4587,19 +4596,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4648,7 +4657,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4663,7 +4672,7 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>125</v>
@@ -4672,7 +4681,7 @@
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4680,14 +4689,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s" s="2">
         <v>42</v>
@@ -4705,19 +4714,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4766,7 +4775,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4781,16 +4790,16 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4798,7 +4807,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4910,7 +4919,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5024,7 +5033,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5050,16 +5059,16 @@
         <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -5072,7 +5081,7 @@
         <v>44</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>44</v>
@@ -5087,10 +5096,10 @@
         <v>151</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5108,7 +5117,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5132,7 +5141,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5140,7 +5149,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5166,13 +5175,13 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5186,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>44</v>
@@ -5201,10 +5210,10 @@
         <v>151</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5222,7 +5231,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5246,7 +5255,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5254,7 +5263,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5280,13 +5289,13 @@
         <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>161</v>
@@ -5302,7 +5311,7 @@
         <v>44</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>44</v>
@@ -5338,7 +5347,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5362,7 +5371,7 @@
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5370,7 +5379,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5396,10 +5405,10 @@
         <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5414,7 +5423,7 @@
         <v>44</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>44</v>
@@ -5450,7 +5459,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5465,7 +5474,7 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
@@ -5474,7 +5483,7 @@
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5482,11 +5491,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5508,10 +5517,10 @@
         <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5526,7 +5535,7 @@
         <v>44</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>44</v>
@@ -5562,7 +5571,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5577,7 +5586,7 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
@@ -5586,7 +5595,7 @@
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5594,11 +5603,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5620,13 +5629,13 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5640,7 +5649,7 @@
         <v>44</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>44</v>
@@ -5676,7 +5685,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5691,7 +5700,7 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>44</v>
@@ -5700,7 +5709,7 @@
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5708,11 +5717,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5734,10 +5743,10 @@
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5764,13 +5773,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5788,7 +5797,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5803,7 +5812,7 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
@@ -5812,7 +5821,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5820,11 +5829,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5846,10 +5855,10 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5864,7 +5873,7 @@
         <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>44</v>
@@ -5900,7 +5909,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5915,7 +5924,7 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5924,7 +5933,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5932,7 +5941,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5958,13 +5967,13 @@
         <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5990,13 +5999,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -6014,7 +6023,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6029,7 +6038,7 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -6038,7 +6047,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -6046,7 +6055,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6072,14 +6081,14 @@
         <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -6092,7 +6101,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -6128,7 +6137,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6152,7 +6161,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6160,7 +6169,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6183,17 +6192,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6218,13 +6227,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6242,7 +6251,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6257,16 +6266,16 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6274,7 +6283,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6297,19 +6306,19 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6358,7 +6367,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6373,7 +6382,7 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>125</v>
@@ -6382,7 +6391,7 @@
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6390,7 +6399,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6413,19 +6422,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6474,7 +6483,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6489,7 +6498,7 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>125</v>
@@ -6498,7 +6507,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6506,7 +6515,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6529,19 +6538,19 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6590,7 +6599,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6602,10 +6611,10 @@
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>125</v>
@@ -6622,7 +6631,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6734,7 +6743,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6848,11 +6857,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6874,10 +6883,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6932,7 +6941,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6964,7 +6973,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6987,17 +6996,17 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -7022,13 +7031,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7046,7 +7055,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7061,7 +7070,7 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>125</v>
@@ -7070,7 +7079,7 @@
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7078,7 +7087,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7104,14 +7113,14 @@
         <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7160,7 +7169,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7184,7 +7193,7 @@
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7192,7 +7201,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7218,13 +7227,13 @@
         <v>202</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>206</v>
@@ -7276,7 +7285,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7300,7 +7309,7 @@
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7308,7 +7317,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7331,17 +7340,17 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7390,7 +7399,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7405,7 +7414,7 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>125</v>
@@ -7414,7 +7423,7 @@
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7422,7 +7431,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7448,14 +7457,14 @@
         <v>71</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7483,10 +7492,10 @@
         <v>151</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7504,7 +7513,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7519,7 +7528,7 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>125</v>
@@ -7528,7 +7537,7 @@
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7536,7 +7545,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7559,17 +7568,17 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7618,7 +7627,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7627,13 +7636,13 @@
         <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>125</v>
@@ -7642,7 +7651,7 @@
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7650,7 +7659,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7676,10 +7685,10 @@
         <v>194</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7730,7 +7739,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7745,7 +7754,7 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>125</v>
@@ -7762,7 +7771,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7785,19 +7794,19 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7846,7 +7855,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7861,10 +7870,10 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
@@ -7878,7 +7887,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7990,7 +7999,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8104,11 +8113,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8130,10 +8139,10 @@
         <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>100</v>
@@ -8188,7 +8197,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8220,7 +8229,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8243,19 +8252,19 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8304,7 +8313,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>51</v>
@@ -8319,16 +8328,16 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8336,7 +8345,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8362,16 +8371,16 @@
         <v>118</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8420,7 +8429,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8435,16 +8444,16 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8452,11 +8461,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8475,16 +8484,16 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8534,7 +8543,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8549,7 +8558,7 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>125</v>
@@ -8558,7 +8567,7 @@
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8566,7 +8575,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8589,19 +8598,19 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8650,7 +8659,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8665,10 +8674,10 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
@@ -8682,7 +8691,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8705,19 +8714,19 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8766,7 +8775,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8781,7 +8790,7 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>125</v>
@@ -8798,7 +8807,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8910,7 +8919,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9024,11 +9033,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9050,10 +9059,10 @@
         <v>97</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>100</v>
@@ -9108,7 +9117,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9140,7 +9149,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9163,16 +9172,16 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9222,7 +9231,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>51</v>
@@ -9246,7 +9255,7 @@
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9254,7 +9263,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9280,10 +9289,10 @@
         <v>71</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9313,28 +9322,28 @@
         <v>151</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>51</v>
@@ -9349,7 +9358,7 @@
         <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>125</v>

--- a/output/carin-rtpbc-Patient.xlsx
+++ b/output/carin-rtpbc-Patient.xlsx
@@ -5387,7 +5387,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>43</v>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
